--- a/Income/CDNS_inc.xlsx
+++ b/Income/CDNS_inc.xlsx
@@ -2108,16 +2108,16 @@
         <v>0.8794</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.8726</v>
+        <v>0.8737</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.8786</v>
+        <v>0.8798</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.8834</v>
+        <v>0.8846</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.8848</v>
+        <v>0.886</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.8833</v>
@@ -3632,16 +3632,16 @@
         <v>0.2983</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.284</v>
+        <v>0.2802</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.2715</v>
+        <v>0.2676</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.2685</v>
+        <v>0.2645</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.2676</v>
+        <v>0.2635</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.2682</v>
